--- a/문서/개발일정 (1).xlsx
+++ b/문서/개발일정 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤성재\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤성재\Documents\GitHub\PROJECT-SS-2\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D01FAC-0EE1-4937-B977-A096ED3B0977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE8675D-B81A-4800-8DC8-10E7410C7114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24075" yWindow="1455" windowWidth="19530" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1446,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1609,58 +1609,199 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1669,6 +1810,69 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1690,15 +1894,6 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1721,129 +1916,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1861,34 +1933,22 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1927,100 +1987,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2032,13 +2014,19 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2352,7 +2340,7 @@
   <dimension ref="A1:AS35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15:AJ15"/>
+      <selection activeCell="AE19" sqref="AE19:AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2363,124 +2351,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="163" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="164" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="165" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="166" t="s">
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="146" t="s">
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="146"/>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="146"/>
-      <c r="AK1" s="146"/>
-      <c r="AL1" s="147" t="s">
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="147"/>
-      <c r="AN1" s="147"/>
-      <c r="AO1" s="147"/>
-      <c r="AP1" s="147"/>
-      <c r="AQ1" s="147"/>
-      <c r="AR1" s="147"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
       <c r="AS1" s="6"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74" t="s">
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="142"/>
+      <c r="AO2" s="142"/>
+      <c r="AP2" s="142"/>
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="73"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="7">
         <v>15</v>
       </c>
@@ -2612,10 +2600,10 @@
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="73"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2747,209 +2735,209 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="75" t="s">
+      <c r="B5" s="163"/>
+      <c r="C5" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="148" t="s">
+      <c r="D5" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="154" t="s">
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="160" t="s">
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="R5" s="161"/>
-      <c r="S5" s="161"/>
-      <c r="T5" s="161"/>
-      <c r="U5" s="161"/>
-      <c r="V5" s="161"/>
-      <c r="W5" s="162"/>
-      <c r="X5" s="81" t="s">
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="170" t="s">
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="AF5" s="171"/>
-      <c r="AG5" s="171"/>
-      <c r="AH5" s="171"/>
-      <c r="AI5" s="171"/>
-      <c r="AJ5" s="171"/>
-      <c r="AK5" s="172"/>
-      <c r="AL5" s="176" t="s">
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="90"/>
+      <c r="AJ5" s="90"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="AM5" s="177"/>
-      <c r="AN5" s="177"/>
-      <c r="AO5" s="177"/>
-      <c r="AP5" s="177"/>
-      <c r="AQ5" s="177"/>
-      <c r="AR5" s="178"/>
-      <c r="AS5" s="87" t="s">
+      <c r="AM5" s="96"/>
+      <c r="AN5" s="96"/>
+      <c r="AO5" s="96"/>
+      <c r="AP5" s="96"/>
+      <c r="AQ5" s="96"/>
+      <c r="AR5" s="97"/>
+      <c r="AS5" s="152" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="148" t="s">
+      <c r="A6" s="164"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="154" t="s">
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="155"/>
-      <c r="O6" s="155"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="92" t="s">
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="81" t="s">
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="170" t="s">
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="AF6" s="171"/>
-      <c r="AG6" s="171"/>
-      <c r="AH6" s="171"/>
-      <c r="AI6" s="171"/>
-      <c r="AJ6" s="171"/>
-      <c r="AK6" s="172"/>
-      <c r="AL6" s="176" t="s">
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="90"/>
+      <c r="AH6" s="90"/>
+      <c r="AI6" s="90"/>
+      <c r="AJ6" s="90"/>
+      <c r="AK6" s="91"/>
+      <c r="AL6" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="AM6" s="177"/>
-      <c r="AN6" s="177"/>
-      <c r="AO6" s="177"/>
-      <c r="AP6" s="177"/>
-      <c r="AQ6" s="177"/>
-      <c r="AR6" s="178"/>
-      <c r="AS6" s="88"/>
+      <c r="AM6" s="96"/>
+      <c r="AN6" s="96"/>
+      <c r="AO6" s="96"/>
+      <c r="AP6" s="96"/>
+      <c r="AQ6" s="96"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="153"/>
     </row>
     <row r="7" spans="1:45" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="157" t="s">
+      <c r="A7" s="166"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="177" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="167" t="s">
+      <c r="K7" s="178"/>
+      <c r="L7" s="178"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="168"/>
-      <c r="S7" s="168"/>
-      <c r="T7" s="168"/>
-      <c r="U7" s="168"/>
-      <c r="V7" s="168"/>
-      <c r="W7" s="169"/>
-      <c r="X7" s="84" t="s">
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="173" t="s">
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="151"/>
+      <c r="AE7" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="AF7" s="174"/>
-      <c r="AG7" s="174"/>
-      <c r="AH7" s="174"/>
-      <c r="AI7" s="174"/>
-      <c r="AJ7" s="174"/>
-      <c r="AK7" s="175"/>
-      <c r="AL7" s="179" t="s">
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="AM7" s="180"/>
-      <c r="AN7" s="180"/>
-      <c r="AO7" s="180"/>
-      <c r="AP7" s="180"/>
-      <c r="AQ7" s="180"/>
-      <c r="AR7" s="181"/>
-      <c r="AS7" s="88"/>
+      <c r="AM7" s="99"/>
+      <c r="AN7" s="99"/>
+      <c r="AO7" s="99"/>
+      <c r="AP7" s="99"/>
+      <c r="AQ7" s="99"/>
+      <c r="AR7" s="100"/>
+      <c r="AS7" s="153"/>
     </row>
     <row r="8" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="80"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="148"/>
       <c r="Q8" s="43"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
@@ -2978,29 +2966,29 @@
       <c r="AP8" s="16"/>
       <c r="AQ8" s="16"/>
       <c r="AR8" s="42"/>
-      <c r="AS8" s="89"/>
+      <c r="AS8" s="154"/>
     </row>
     <row r="9" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="77" t="s">
+      <c r="B9" s="137"/>
+      <c r="C9" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="78"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="146"/>
       <c r="Q9" s="44"/>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
@@ -3029,13 +3017,13 @@
       <c r="AP9" s="20"/>
       <c r="AQ9" s="20"/>
       <c r="AR9" s="45"/>
-      <c r="AS9" s="89"/>
+      <c r="AS9" s="154"/>
     </row>
     <row r="10" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="138" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="21"/>
@@ -3052,11 +3040,11 @@
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="37"/>
-      <c r="Q10" s="110" t="s">
+      <c r="Q10" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="R10" s="95"/>
-      <c r="S10" s="111"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="132"/>
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
@@ -3065,15 +3053,15 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
-      <c r="AB10" s="94" t="s">
+      <c r="AB10" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="60" t="s">
+      <c r="AC10" s="122"/>
+      <c r="AD10" s="123"/>
+      <c r="AE10" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="AF10" s="195" t="s">
+      <c r="AF10" s="183" t="s">
         <v>86</v>
       </c>
       <c r="AG10" s="21"/>
@@ -3088,11 +3076,11 @@
       <c r="AP10" s="21"/>
       <c r="AQ10" s="21"/>
       <c r="AR10" s="37"/>
-      <c r="AS10" s="89"/>
+      <c r="AS10" s="154"/>
     </row>
     <row r="11" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
-      <c r="B11" s="116"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -3110,29 +3098,29 @@
       <c r="Q11" s="46"/>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="104" t="s">
+      <c r="T11" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="U11" s="104"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="105"/>
-      <c r="X11" s="103" t="s">
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="106"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="127"/>
       <c r="AA11" s="18"/>
       <c r="AB11" s="18"/>
       <c r="AC11" s="18"/>
       <c r="AD11" s="38"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="196"/>
-      <c r="AG11" s="64" t="s">
+      <c r="AE11" s="190"/>
+      <c r="AF11" s="184"/>
+      <c r="AG11" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="65"/>
+      <c r="AH11" s="129"/>
+      <c r="AI11" s="129"/>
+      <c r="AJ11" s="133"/>
       <c r="AK11" s="38"/>
       <c r="AL11" s="30"/>
       <c r="AM11" s="18"/>
@@ -3141,11 +3129,11 @@
       <c r="AP11" s="18"/>
       <c r="AQ11" s="18"/>
       <c r="AR11" s="38"/>
-      <c r="AS11" s="89"/>
+      <c r="AS11" s="154"/>
     </row>
     <row r="12" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="118"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -3171,13 +3159,13 @@
       <c r="Y12" s="22"/>
       <c r="Z12" s="22"/>
       <c r="AA12" s="22"/>
-      <c r="AB12" s="184" t="s">
+      <c r="AB12" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="AC12" s="185"/>
-      <c r="AD12" s="186"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="197"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="103"/>
+      <c r="AE12" s="191"/>
+      <c r="AF12" s="185"/>
       <c r="AG12" s="28"/>
       <c r="AH12" s="22"/>
       <c r="AI12" s="22"/>
@@ -3190,11 +3178,11 @@
       <c r="AP12" s="22"/>
       <c r="AQ12" s="22"/>
       <c r="AR12" s="39"/>
-      <c r="AS12" s="89"/>
+      <c r="AS12" s="154"/>
     </row>
     <row r="13" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="138" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="21"/>
@@ -3218,23 +3206,23 @@
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
       <c r="W13" s="37"/>
-      <c r="X13" s="110" t="s">
+      <c r="X13" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="111"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="132"/>
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="37"/>
       <c r="AE13" s="53"/>
-      <c r="AF13" s="63" t="s">
+      <c r="AF13" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="55"/>
-      <c r="AJ13" s="56"/>
+      <c r="AG13" s="125"/>
+      <c r="AH13" s="125"/>
+      <c r="AI13" s="125"/>
+      <c r="AJ13" s="193"/>
       <c r="AK13" s="37"/>
       <c r="AL13" s="31"/>
       <c r="AM13" s="21"/>
@@ -3243,18 +3231,18 @@
       <c r="AP13" s="21"/>
       <c r="AQ13" s="21"/>
       <c r="AR13" s="37"/>
-      <c r="AS13" s="89"/>
+      <c r="AS13" s="154"/>
     </row>
     <row r="14" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
-      <c r="B14" s="116"/>
+      <c r="B14" s="137"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="136" t="s">
+      <c r="D14" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
       <c r="H14" s="18"/>
       <c r="I14" s="38"/>
       <c r="J14" s="30"/>
@@ -3265,33 +3253,33 @@
       <c r="O14" s="18"/>
       <c r="P14" s="38"/>
       <c r="Q14" s="46"/>
-      <c r="R14" s="120" t="s">
+      <c r="R14" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="S14" s="104"/>
-      <c r="T14" s="106"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="127"/>
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="38"/>
       <c r="X14" s="46"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
-      <c r="AA14" s="113" t="s">
+      <c r="AA14" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="114"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="135"/>
       <c r="AD14" s="38"/>
       <c r="AE14" s="51"/>
-      <c r="AF14" s="192" t="s">
+      <c r="AF14" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="AG14" s="64" t="s">
+      <c r="AG14" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="65"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="135"/>
       <c r="AK14" s="38"/>
       <c r="AL14" s="30"/>
       <c r="AM14" s="18"/>
@@ -3300,20 +3288,20 @@
       <c r="AP14" s="18"/>
       <c r="AQ14" s="18"/>
       <c r="AR14" s="38"/>
-      <c r="AS14" s="89"/>
+      <c r="AS14" s="154"/>
     </row>
     <row r="15" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
-      <c r="B15" s="116"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="133" t="s">
+      <c r="G15" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
@@ -3331,20 +3319,20 @@
       <c r="X15" s="46"/>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
-      <c r="AA15" s="107" t="s">
+      <c r="AA15" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="AB15" s="108"/>
-      <c r="AC15" s="108"/>
-      <c r="AD15" s="109"/>
+      <c r="AB15" s="129"/>
+      <c r="AC15" s="129"/>
+      <c r="AD15" s="130"/>
       <c r="AE15" s="51"/>
-      <c r="AF15" s="193"/>
-      <c r="AG15" s="64" t="s">
+      <c r="AF15" s="187"/>
+      <c r="AG15" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="65"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="127"/>
       <c r="AK15" s="38"/>
       <c r="AL15" s="30"/>
       <c r="AM15" s="18"/>
@@ -3353,21 +3341,21 @@
       <c r="AP15" s="18"/>
       <c r="AQ15" s="18"/>
       <c r="AR15" s="38"/>
-      <c r="AS15" s="89"/>
+      <c r="AS15" s="154"/>
     </row>
     <row r="16" spans="1:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
-      <c r="B16" s="116"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="134" t="s">
+      <c r="H16" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -3382,22 +3370,22 @@
       <c r="V16" s="18"/>
       <c r="W16" s="38"/>
       <c r="X16" s="46"/>
-      <c r="Y16" s="107" t="s">
+      <c r="Y16" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="Z16" s="108"/>
-      <c r="AA16" s="108"/>
-      <c r="AB16" s="112"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="129"/>
+      <c r="AB16" s="133"/>
       <c r="AC16" s="18"/>
       <c r="AD16" s="38"/>
       <c r="AE16" s="51"/>
-      <c r="AF16" s="194"/>
-      <c r="AG16" s="107" t="s">
+      <c r="AF16" s="188"/>
+      <c r="AG16" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="AH16" s="108"/>
-      <c r="AI16" s="108"/>
-      <c r="AJ16" s="112"/>
+      <c r="AH16" s="129"/>
+      <c r="AI16" s="129"/>
+      <c r="AJ16" s="133"/>
       <c r="AK16" s="38"/>
       <c r="AL16" s="30"/>
       <c r="AM16" s="18"/>
@@ -3406,11 +3394,11 @@
       <c r="AP16" s="18"/>
       <c r="AQ16" s="18"/>
       <c r="AR16" s="38"/>
-      <c r="AS16" s="89"/>
+      <c r="AS16" s="154"/>
     </row>
     <row r="17" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
-      <c r="B17" s="116"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -3425,15 +3413,15 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="38"/>
-      <c r="Q17" s="100" t="s">
+      <c r="Q17" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="102"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="56"/>
       <c r="X17" s="46"/>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
@@ -3455,19 +3443,19 @@
       <c r="AP17" s="18"/>
       <c r="AQ17" s="18"/>
       <c r="AR17" s="38"/>
-      <c r="AS17" s="89"/>
+      <c r="AS17" s="154"/>
     </row>
     <row r="18" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
-      <c r="B18" s="118"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="135" t="s">
+      <c r="G18" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="135"/>
+      <c r="H18" s="159"/>
       <c r="I18" s="39"/>
       <c r="J18" s="34"/>
       <c r="K18" s="22"/>
@@ -3504,11 +3492,11 @@
       <c r="AP18" s="22"/>
       <c r="AQ18" s="22"/>
       <c r="AR18" s="39"/>
-      <c r="AS18" s="89"/>
+      <c r="AS18" s="154"/>
     </row>
     <row r="19" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="137" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="17"/>
@@ -3532,20 +3520,20 @@
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
       <c r="W19" s="40"/>
-      <c r="X19" s="97" t="s">
+      <c r="X19" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="98"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="54" t="s">
+      <c r="Y19" s="125"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="125"/>
+      <c r="AB19" s="125"/>
+      <c r="AC19" s="125"/>
+      <c r="AD19" s="126"/>
+      <c r="AE19" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="AF19" s="55"/>
-      <c r="AG19" s="56"/>
+      <c r="AF19" s="122"/>
+      <c r="AG19" s="132"/>
       <c r="AH19" s="17"/>
       <c r="AI19" s="17"/>
       <c r="AJ19" s="17"/>
@@ -3557,11 +3545,11 @@
       <c r="AP19" s="17"/>
       <c r="AQ19" s="17"/>
       <c r="AR19" s="40"/>
-      <c r="AS19" s="89"/>
+      <c r="AS19" s="154"/>
     </row>
     <row r="20" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
-      <c r="B20" s="116"/>
+      <c r="B20" s="137"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -3576,33 +3564,33 @@
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="38"/>
-      <c r="Q20" s="100" t="s">
+      <c r="Q20" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="100" t="s">
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="101"/>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="101"/>
-      <c r="AD20" s="102"/>
-      <c r="AE20" s="57" t="s">
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="59"/>
+      <c r="AF20" s="181"/>
+      <c r="AG20" s="181"/>
+      <c r="AH20" s="181"/>
+      <c r="AI20" s="181"/>
+      <c r="AJ20" s="181"/>
+      <c r="AK20" s="182"/>
       <c r="AL20" s="30"/>
       <c r="AM20" s="18"/>
       <c r="AN20" s="18"/>
@@ -3610,11 +3598,11 @@
       <c r="AP20" s="18"/>
       <c r="AQ20" s="18"/>
       <c r="AR20" s="38"/>
-      <c r="AS20" s="89"/>
+      <c r="AS20" s="154"/>
     </row>
     <row r="21" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
-      <c r="B21" s="116"/>
+      <c r="B21" s="137"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -3636,24 +3624,24 @@
       <c r="U21" s="18"/>
       <c r="V21" s="18"/>
       <c r="W21" s="38"/>
-      <c r="X21" s="103" t="s">
+      <c r="X21" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="104"/>
-      <c r="AD21" s="105"/>
-      <c r="AE21" s="57" t="s">
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="59"/>
+      <c r="AF21" s="181"/>
+      <c r="AG21" s="181"/>
+      <c r="AH21" s="181"/>
+      <c r="AI21" s="181"/>
+      <c r="AJ21" s="181"/>
+      <c r="AK21" s="182"/>
       <c r="AL21" s="30"/>
       <c r="AM21" s="18"/>
       <c r="AN21" s="18"/>
@@ -3661,11 +3649,11 @@
       <c r="AP21" s="18"/>
       <c r="AQ21" s="18"/>
       <c r="AR21" s="38"/>
-      <c r="AS21" s="89"/>
+      <c r="AS21" s="154"/>
     </row>
     <row r="22" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
-      <c r="B22" s="116"/>
+      <c r="B22" s="137"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -3687,15 +3675,15 @@
       <c r="U22" s="18"/>
       <c r="V22" s="18"/>
       <c r="W22" s="38"/>
-      <c r="X22" s="103" t="s">
+      <c r="X22" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="104"/>
-      <c r="AD22" s="105"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="62"/>
       <c r="AE22" s="51"/>
       <c r="AF22" s="18"/>
       <c r="AG22" s="18"/>
@@ -3710,11 +3698,11 @@
       <c r="AP22" s="18"/>
       <c r="AQ22" s="18"/>
       <c r="AR22" s="38"/>
-      <c r="AS22" s="89"/>
+      <c r="AS22" s="154"/>
     </row>
     <row r="23" spans="1:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26"/>
-      <c r="B23" s="119"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -3736,11 +3724,11 @@
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
       <c r="W23" s="41"/>
-      <c r="X23" s="189" t="s">
+      <c r="X23" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="Y23" s="190"/>
-      <c r="Z23" s="191"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="65"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
       <c r="AC23" s="19"/>
@@ -3759,266 +3747,266 @@
       <c r="AP23" s="19"/>
       <c r="AQ23" s="19"/>
       <c r="AR23" s="41"/>
-      <c r="AS23" s="89"/>
+      <c r="AS23" s="154"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A24" s="121" t="s">
+      <c r="A24" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="138" t="s">
+      <c r="C24" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="124" t="s">
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="124"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="143" t="s">
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="R24" s="143"/>
-      <c r="S24" s="143"/>
-      <c r="T24" s="143"/>
-      <c r="U24" s="143"/>
-      <c r="V24" s="143"/>
-      <c r="W24" s="143"/>
-      <c r="X24" s="144"/>
-      <c r="Y24" s="144"/>
-      <c r="Z24" s="144"/>
-      <c r="AA24" s="144"/>
-      <c r="AB24" s="144"/>
-      <c r="AC24" s="144"/>
-      <c r="AD24" s="144"/>
-      <c r="AE24" s="145"/>
-      <c r="AF24" s="145"/>
-      <c r="AG24" s="145"/>
-      <c r="AH24" s="145"/>
-      <c r="AI24" s="145"/>
-      <c r="AJ24" s="145"/>
-      <c r="AK24" s="145"/>
-      <c r="AL24" s="91"/>
-      <c r="AM24" s="91"/>
-      <c r="AN24" s="91"/>
-      <c r="AO24" s="91"/>
-      <c r="AP24" s="91"/>
-      <c r="AQ24" s="91"/>
-      <c r="AR24" s="91"/>
-      <c r="AS24" s="88"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="83"/>
+      <c r="AF24" s="83"/>
+      <c r="AG24" s="83"/>
+      <c r="AH24" s="83"/>
+      <c r="AI24" s="83"/>
+      <c r="AJ24" s="83"/>
+      <c r="AK24" s="83"/>
+      <c r="AL24" s="156"/>
+      <c r="AM24" s="156"/>
+      <c r="AN24" s="156"/>
+      <c r="AO24" s="156"/>
+      <c r="AP24" s="156"/>
+      <c r="AQ24" s="156"/>
+      <c r="AR24" s="156"/>
+      <c r="AS24" s="153"/>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A25" s="122"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="125" t="s">
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="92" t="s">
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="93"/>
-      <c r="AE25" s="141"/>
-      <c r="AF25" s="141"/>
-      <c r="AG25" s="141"/>
-      <c r="AH25" s="141"/>
-      <c r="AI25" s="141"/>
-      <c r="AJ25" s="141"/>
-      <c r="AK25" s="141"/>
-      <c r="AL25" s="142"/>
-      <c r="AM25" s="142"/>
-      <c r="AN25" s="142"/>
-      <c r="AO25" s="142"/>
-      <c r="AP25" s="142"/>
-      <c r="AQ25" s="142"/>
-      <c r="AR25" s="142"/>
-      <c r="AS25" s="88"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="69"/>
+      <c r="AF25" s="69"/>
+      <c r="AG25" s="69"/>
+      <c r="AH25" s="69"/>
+      <c r="AI25" s="69"/>
+      <c r="AJ25" s="69"/>
+      <c r="AK25" s="69"/>
+      <c r="AL25" s="70"/>
+      <c r="AM25" s="70"/>
+      <c r="AN25" s="70"/>
+      <c r="AO25" s="70"/>
+      <c r="AP25" s="70"/>
+      <c r="AQ25" s="70"/>
+      <c r="AR25" s="70"/>
+      <c r="AS25" s="153"/>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A26" s="122"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="125" t="s">
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="92" t="s">
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="93"/>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="141"/>
-      <c r="AF26" s="141"/>
-      <c r="AG26" s="141"/>
-      <c r="AH26" s="141"/>
-      <c r="AI26" s="141"/>
-      <c r="AJ26" s="141"/>
-      <c r="AK26" s="141"/>
-      <c r="AL26" s="142"/>
-      <c r="AM26" s="142"/>
-      <c r="AN26" s="142"/>
-      <c r="AO26" s="142"/>
-      <c r="AP26" s="142"/>
-      <c r="AQ26" s="142"/>
-      <c r="AR26" s="142"/>
-      <c r="AS26" s="88"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="68"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="69"/>
+      <c r="AH26" s="69"/>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="69"/>
+      <c r="AL26" s="70"/>
+      <c r="AM26" s="70"/>
+      <c r="AN26" s="70"/>
+      <c r="AO26" s="70"/>
+      <c r="AP26" s="70"/>
+      <c r="AQ26" s="70"/>
+      <c r="AR26" s="70"/>
+      <c r="AS26" s="153"/>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A27" s="122"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="125" t="s">
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="93"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="93"/>
-      <c r="AE27" s="141"/>
-      <c r="AF27" s="141"/>
-      <c r="AG27" s="141"/>
-      <c r="AH27" s="141"/>
-      <c r="AI27" s="141"/>
-      <c r="AJ27" s="141"/>
-      <c r="AK27" s="141"/>
-      <c r="AL27" s="142"/>
-      <c r="AM27" s="142"/>
-      <c r="AN27" s="142"/>
-      <c r="AO27" s="142"/>
-      <c r="AP27" s="142"/>
-      <c r="AQ27" s="142"/>
-      <c r="AR27" s="142"/>
-      <c r="AS27" s="88"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="68"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="68"/>
+      <c r="AC27" s="68"/>
+      <c r="AD27" s="68"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="69"/>
+      <c r="AG27" s="69"/>
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="69"/>
+      <c r="AJ27" s="69"/>
+      <c r="AK27" s="69"/>
+      <c r="AL27" s="70"/>
+      <c r="AM27" s="70"/>
+      <c r="AN27" s="70"/>
+      <c r="AO27" s="70"/>
+      <c r="AP27" s="70"/>
+      <c r="AQ27" s="70"/>
+      <c r="AR27" s="70"/>
+      <c r="AS27" s="153"/>
     </row>
     <row r="28" spans="1:45" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="123"/>
+      <c r="A28" s="106"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="187"/>
-      <c r="R28" s="187"/>
-      <c r="S28" s="187"/>
-      <c r="T28" s="187"/>
-      <c r="U28" s="187"/>
-      <c r="V28" s="187"/>
-      <c r="W28" s="187"/>
-      <c r="X28" s="188"/>
-      <c r="Y28" s="188"/>
-      <c r="Z28" s="188"/>
-      <c r="AA28" s="188"/>
-      <c r="AB28" s="188"/>
-      <c r="AC28" s="188"/>
-      <c r="AD28" s="188"/>
-      <c r="AE28" s="182"/>
-      <c r="AF28" s="182"/>
-      <c r="AG28" s="182"/>
-      <c r="AH28" s="182"/>
-      <c r="AI28" s="182"/>
-      <c r="AJ28" s="182"/>
-      <c r="AK28" s="182"/>
-      <c r="AL28" s="183"/>
-      <c r="AM28" s="183"/>
-      <c r="AN28" s="183"/>
-      <c r="AO28" s="183"/>
-      <c r="AP28" s="183"/>
-      <c r="AQ28" s="183"/>
-      <c r="AR28" s="183"/>
-      <c r="AS28" s="90"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="67"/>
+      <c r="AM28" s="67"/>
+      <c r="AN28" s="67"/>
+      <c r="AO28" s="67"/>
+      <c r="AP28" s="67"/>
+      <c r="AQ28" s="67"/>
+      <c r="AR28" s="67"/>
+      <c r="AS28" s="155"/>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
@@ -4071,54 +4059,34 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="Q28:W28"/>
-    <mergeCell ref="X28:AD28"/>
-    <mergeCell ref="Q27:W27"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AE28:AK28"/>
-    <mergeCell ref="AL28:AR28"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="AE26:AK26"/>
-    <mergeCell ref="AL26:AR26"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="AE27:AK27"/>
-    <mergeCell ref="AL27:AR27"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="X1:AD1"/>
-    <mergeCell ref="Q7:W7"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="AL25:AR25"/>
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="AE1:AK1"/>
-    <mergeCell ref="AL1:AR1"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="AE5:AK5"/>
-    <mergeCell ref="AE6:AK6"/>
-    <mergeCell ref="AE7:AK7"/>
-    <mergeCell ref="AL5:AR5"/>
-    <mergeCell ref="AL6:AR6"/>
-    <mergeCell ref="AL7:AR7"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AE10:AE12"/>
+    <mergeCell ref="AF10:AF12"/>
+    <mergeCell ref="AF13:AJ13"/>
+    <mergeCell ref="AF14:AF16"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="AG16:AJ16"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="AE25:AK25"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="AE20:AK20"/>
+    <mergeCell ref="AE21:AK21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="AB10:AD10"/>
     <mergeCell ref="X19:AD19"/>
@@ -4143,36 +4111,56 @@
     <mergeCell ref="X7:AD7"/>
     <mergeCell ref="AS5:AS28"/>
     <mergeCell ref="AL24:AR24"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="X1:AD1"/>
+    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="X5:AD5"/>
+    <mergeCell ref="AL25:AR25"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="AE1:AK1"/>
+    <mergeCell ref="AL1:AR1"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="AE5:AK5"/>
+    <mergeCell ref="AE6:AK6"/>
+    <mergeCell ref="AE7:AK7"/>
+    <mergeCell ref="AL5:AR5"/>
+    <mergeCell ref="AL6:AR6"/>
+    <mergeCell ref="AL7:AR7"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="Q17:W17"/>
     <mergeCell ref="Q25:W25"/>
     <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="AE25:AK25"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AE20:AK20"/>
-    <mergeCell ref="AE21:AK21"/>
-    <mergeCell ref="AE10:AE12"/>
-    <mergeCell ref="AF10:AF12"/>
-    <mergeCell ref="AF13:AJ13"/>
-    <mergeCell ref="AF14:AF16"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="AG16:AJ16"/>
-    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="Q28:W28"/>
+    <mergeCell ref="X28:AD28"/>
+    <mergeCell ref="Q27:W27"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AE28:AK28"/>
+    <mergeCell ref="AL28:AR28"/>
+    <mergeCell ref="X26:AD26"/>
+    <mergeCell ref="AE26:AK26"/>
+    <mergeCell ref="AL26:AR26"/>
+    <mergeCell ref="X27:AD27"/>
+    <mergeCell ref="AE27:AK27"/>
+    <mergeCell ref="AL27:AR27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C15">
